--- a/정책정의서/정책정의서_통합.xlsx
+++ b/정책정의서/정책정의서_통합.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qumo1\Downloads\230331\정책정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_230402\정책정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C62B21-240F-4BC7-8686-F16EB4133FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08385EAE-E5C5-4049-BFCC-F87E46F70655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1212" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위시리스트에 있는 상품 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장바구니에 있는 상품 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,11 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위시리스트에서 등록한 상품 확인 가능
-장바구니로 이동 또는 주문하기 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선택된 상품의 수량은 1품목 당 1 이상 필수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,18 +245,6 @@
   </si>
   <si>
     <t>반품 신청시 결제 금액 차액을 계산, 결제 완료후 반품된 상품의 배송이 시작한 시점에서 다른 상품을 배송시킴.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 정책</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 구매시 얻은 포인트를 사용후 주문 취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 취소된 상품의 포인트 반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -354,6 +333,194 @@
   <si>
     <t>로그인 오류</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개인정보 수집 여부 </t>
+  </si>
+  <si>
+    <t>마케팅 정보 제공 동의</t>
+  </si>
+  <si>
+    <t>미성년자 가입 여부</t>
+  </si>
+  <si>
+    <t>아이디 생성 규칙</t>
+  </si>
+  <si>
+    <t>비밀번호 생성 규칙</t>
+  </si>
+  <si>
+    <t>이메일 작성</t>
+  </si>
+  <si>
+    <t>주소 작성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아이디 입력 오류 </t>
+  </si>
+  <si>
+    <t>비밀번호 입력 오류</t>
+  </si>
+  <si>
+    <t>아이디, 비밀번호 찾기</t>
+  </si>
+  <si>
+    <t>로그인 정보 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 동의</t>
+  </si>
+  <si>
+    <t>선택 동의</t>
+  </si>
+  <si>
+    <t>가능</t>
+  </si>
+  <si>
+    <t>6자리 이상 영문자와 숫자 조합, 중복 여부 확인</t>
+  </si>
+  <si>
+    <t>9자리 이상 특수문자 하나 이상 포함, 영문자, 숫자 조합, 비밀번호 확인란에 동일하게 작성</t>
+  </si>
+  <si>
+    <t>필수 작성, 작성한 주소로 인증 메일 전송</t>
+  </si>
+  <si>
+    <t>필수 작성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘아이디또는 비밀번호가 일치하지 않습니다’ 메세지 전송 </t>
+  </si>
+  <si>
+    <t>‘아이디또는 비밀번호가 일치하지 않습니다’ 메세지 전송 , 일정 횟수 이상 오류 시 정해진 시간동안 로그인 불가</t>
+  </si>
+  <si>
+    <t>아이디 또는 비밀번호를 잊어버릴 시 회원가입할 때 기입한 정보로 인증해서 찾기</t>
+  </si>
+  <si>
+    <t>상품 구매시 얻은 포인트를
+사용후 주문 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 취소된 상품의
+포인트 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS-view-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS-view-05</t>
+  </si>
+  <si>
+    <t>BS-view-02</t>
+  </si>
+  <si>
+    <t>BS-view-03</t>
+  </si>
+  <si>
+    <t>BS-view-04</t>
+  </si>
+  <si>
+    <t>BS-req-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS-req-02</t>
+  </si>
+  <si>
+    <t>BS-req-03</t>
+  </si>
+  <si>
+    <t>BS-req-04</t>
+  </si>
+  <si>
+    <t>BS-pnt-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS-pnt-02</t>
+  </si>
+  <si>
+    <t>BS-pnt-03</t>
+  </si>
+  <si>
+    <t>BS-pnt-04</t>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS-buy-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS-buy-02</t>
+  </si>
+  <si>
+    <t>BS-buy-03</t>
+  </si>
+  <si>
+    <t>BS-buy-04</t>
+  </si>
+  <si>
+    <t>BS-dlvr-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS-dlvr-02</t>
+  </si>
+  <si>
+    <t>BS-dlvr-03</t>
+  </si>
+  <si>
+    <t>BS-buy-05</t>
+  </si>
+  <si>
+    <t>BS-buy-06</t>
+  </si>
+  <si>
+    <t>BS-buy-07</t>
+  </si>
+  <si>
+    <t>BS-cart-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS-join-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS-join-02</t>
+  </si>
+  <si>
+    <t>BS-join-03</t>
+  </si>
+  <si>
+    <t>BS-join-04</t>
+  </si>
+  <si>
+    <t>BS-join-05</t>
+  </si>
+  <si>
+    <t>BS-join-06</t>
+  </si>
+  <si>
+    <t>BS-join-07</t>
+  </si>
+  <si>
+    <t>BS-login-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS-login-02</t>
+  </si>
+  <si>
+    <t>BS-login-03</t>
   </si>
 </sst>
 </file>
@@ -464,27 +631,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -492,14 +644,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,666 +939,773 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="117.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="104.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
+    <row r="3" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="7" t="s">
+    </row>
+    <row r="4" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:B36" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <f t="shared" ref="A4:A34" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="7" t="s">
+    <row r="5" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.45">
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.45">
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.45">
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.45">
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.45">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.45">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="E34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="F34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="F35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="4">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="5">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="5">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>35</v>
+      <c r="C36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>